--- a/CIENCIAS NATURALES/HORARIOS CIENCIAS NATURALES  2018.xlsx
+++ b/CIENCIAS NATURALES/HORARIOS CIENCIAS NATURALES  2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738D2FCA-8D53-4719-B963-094AEA0E301A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5428B-92C5-4911-B050-4BE11CB49ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <t>HOMOLOGA CN309 CON CN343(01)</t>
   </si>
   <si>
-    <t>HOMOLOGA CN323 CON CN402(01)</t>
-  </si>
-  <si>
     <t>HOMOLOGA CN338 CON CN403(01)</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   </si>
   <si>
     <t>CN007 (DEL 01 AL 10)</t>
+  </si>
+  <si>
+    <t>HOMOLOGA CN323 Y CN325 CON CN402(01)</t>
   </si>
 </sst>
 </file>
@@ -1837,66 +1837,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,12 +2028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,12 +2041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2190,9 +2118,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,6 +2184,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2608,114 +2608,114 @@
   <sheetData>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="R5" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="S5" s="185" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="61"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="192"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="89"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="17"/>
-      <c r="P7" s="145" t="s">
+      <c r="P7" s="125" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="16">
@@ -2729,42 +2729,42 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="91"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="19"/>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="68" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="18">
@@ -2778,42 +2778,42 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="71"/>
       <c r="M9" s="19"/>
-      <c r="P9" s="88" t="s">
+      <c r="P9" s="68" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="18">
@@ -2827,42 +2827,42 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="91" t="s">
+      <c r="I10" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="L10" s="91"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="19"/>
-      <c r="P10" s="88" t="s">
+      <c r="P10" s="68" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="18">
@@ -2876,34 +2876,34 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="91"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="19"/>
-      <c r="P11" s="88" t="s">
+      <c r="P11" s="68" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="18"/>
@@ -2911,30 +2911,30 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="85"/>
-      <c r="P12" s="88" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="65"/>
+      <c r="P12" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="18">
@@ -2948,30 +2948,30 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="17"/>
-      <c r="P13" s="88" t="s">
+      <c r="P13" s="68" t="s">
         <v>37</v>
       </c>
       <c r="Q13" s="18">
@@ -2985,30 +2985,30 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="20"/>
-      <c r="P14" s="88" t="s">
+      <c r="P14" s="68" t="s">
         <v>38</v>
       </c>
       <c r="Q14" s="18">
@@ -3020,37 +3020,37 @@
       <c r="S14" s="19">
         <v>4</v>
       </c>
-      <c r="U14" s="183" t="s">
+      <c r="U14" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="89" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="I15" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="97" t="s">
+      <c r="J15" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="87"/>
-      <c r="P15" s="88" t="s">
+      <c r="L15" s="77"/>
+      <c r="M15" s="67"/>
+      <c r="P15" s="68" t="s">
         <v>39</v>
       </c>
       <c r="Q15" s="18">
@@ -3064,91 +3064,91 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="95" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="L16" s="91"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="19"/>
-      <c r="P16" s="144"/>
+      <c r="P16" s="124"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="85"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="65"/>
       <c r="O18" s="36"/>
       <c r="P18" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="18"/>
@@ -3165,7 +3165,7 @@
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="18"/>
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="21"/>
@@ -3215,335 +3215,357 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="185" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="61" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="61" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="92"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="74"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="90"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="98"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="78"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="72"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="72"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="74"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="60" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="90"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="70"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="92"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="72"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="92"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="72"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="96"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
@@ -3553,28 +3575,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3586,7 +3586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A4:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -3604,77 +3604,77 @@
   <sheetData>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="44"/>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -3695,7 +3695,7 @@
       <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="208" t="s">
+      <c r="P7" s="183" t="s">
         <v>100</v>
       </c>
       <c r="Q7" s="5">
@@ -3724,7 +3724,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="184" t="s">
         <v>99</v>
       </c>
       <c r="Q8" s="3">
@@ -3752,10 +3752,10 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
@@ -3777,10 +3777,10 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="3"/>
@@ -3823,10 +3823,10 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
@@ -3848,10 +3848,10 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="3"/>
@@ -3873,10 +3873,10 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="4"/>
@@ -3898,10 +3898,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="4"/>
@@ -3923,10 +3923,10 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="4"/>
@@ -3948,10 +3948,10 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="9"/>
@@ -3973,10 +3973,10 @@
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -4015,10 +4015,10 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -4036,10 +4036,10 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4057,10 +4057,10 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -4161,11 +4161,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -4178,6 +4173,11 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4214,103 +4214,103 @@
   <sheetData>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="116"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="27"/>
       <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="142" t="s">
+      <c r="P7" s="122" t="s">
         <v>40</v>
       </c>
       <c r="Q7" s="22">
@@ -4322,39 +4322,39 @@
       <c r="S7" s="14">
         <v>2</v>
       </c>
-      <c r="U7" s="183" t="s">
+      <c r="U7" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J8" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="121"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="29"/>
-      <c r="P8" s="143" t="s">
+      <c r="P8" s="123" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="18">
@@ -4374,23 +4374,23 @@
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="121"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="29"/>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="123" t="s">
         <v>42</v>
       </c>
       <c r="Q9" s="18">
@@ -4407,23 +4407,23 @@
       <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="121"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="29"/>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="123" t="s">
         <v>43</v>
       </c>
       <c r="Q10" s="18">
@@ -4440,35 +4440,35 @@
       <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="121" t="s">
+      <c r="J11" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="121"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="29"/>
-      <c r="P11" s="143" t="s">
+      <c r="P11" s="123" t="s">
         <v>44</v>
       </c>
       <c r="Q11" s="18"/>
@@ -4479,35 +4479,35 @@
       <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="132" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="126"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="31"/>
-      <c r="P12" s="143" t="s">
+      <c r="P12" s="123" t="s">
         <v>45</v>
       </c>
       <c r="Q12" s="18">
@@ -4521,42 +4521,42 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="129"/>
+      <c r="L13" s="109"/>
       <c r="M13" s="17"/>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="123" t="s">
         <v>46</v>
       </c>
       <c r="Q13" s="18">
@@ -4570,42 +4570,42 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="132" t="s">
+      <c r="G14" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="127" t="s">
+      <c r="K14" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="133"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="20"/>
-      <c r="P14" s="143" t="s">
+      <c r="P14" s="123" t="s">
         <v>47</v>
       </c>
       <c r="Q14" s="18">
@@ -4622,26 +4622,26 @@
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="137" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="134" t="s">
+      <c r="G15" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="135"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="137"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="35"/>
       <c r="O15" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="144" t="s">
+      <c r="P15" s="124" t="s">
         <v>48</v>
       </c>
       <c r="Q15" s="21">
@@ -4661,225 +4661,225 @@
       <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="121" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="121"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="121" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="118" t="s">
+      <c r="J17" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="L17" s="121"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="121" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="118" t="s">
+      <c r="H18" s="107"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="126"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="134" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="116"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="118" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="121"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="121"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="139"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="60" t="s">
+      <c r="J26" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="60" t="s">
+      <c r="K26" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="60" t="s">
+      <c r="M26" s="185" t="s">
         <v>18</v>
       </c>
       <c r="S26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="192"/>
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5160,25 +5160,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -5191,6 +5172,25 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5203,7 +5203,7 @@
   <dimension ref="A4:W49"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,92 +5229,92 @@
   <sheetData>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="203"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="128" t="s">
         <v>182</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
         <v>123</v>
@@ -5335,17 +5335,17 @@
       <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="128" t="s">
         <v>182</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="103"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29" t="s">
         <v>123</v>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="P8" s="143" t="s">
+      <c r="P8" s="123" t="s">
         <v>51</v>
       </c>
       <c r="Q8" s="18">
@@ -5375,19 +5375,19 @@
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="80" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="80" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="29" t="s">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="123" t="s">
         <v>52</v>
       </c>
       <c r="Q9" s="18">
@@ -5427,19 +5427,19 @@
       <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="80" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="80" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="29" t="s">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="123" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="18">
@@ -5476,21 +5476,21 @@
       <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="80" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="100" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="80" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" s="83" t="s">
         <v>122</v>
       </c>
       <c r="I11" s="29" t="s">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="P11" s="143" t="s">
+      <c r="P11" s="123" t="s">
         <v>54</v>
       </c>
       <c r="Q11" s="18">
@@ -5524,21 +5524,21 @@
       <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="82" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="102" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="82" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="84" t="s">
         <v>122</v>
       </c>
       <c r="I12" s="31" t="s">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
-      <c r="P12" s="143" t="s">
+      <c r="P12" s="123" t="s">
         <v>55</v>
       </c>
       <c r="Q12" s="18">
@@ -5569,27 +5569,27 @@
       <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="79" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="126" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="99"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="101"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="123" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="18"/>
@@ -5600,27 +5600,27 @@
       <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="90" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="91" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="111"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
-      <c r="P14" s="143" t="s">
+      <c r="P14" s="123" t="s">
         <v>57</v>
       </c>
       <c r="Q14" s="18">
@@ -5657,7 +5657,7 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
-      <c r="P15" s="143" t="s">
+      <c r="P15" s="123" t="s">
         <v>58</v>
       </c>
       <c r="Q15" s="18">
@@ -5694,7 +5694,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="P16" s="143" t="s">
+      <c r="P16" s="123" t="s">
         <v>59</v>
       </c>
       <c r="Q16" s="18">
@@ -5707,11 +5707,11 @@
         <v>2</v>
       </c>
       <c r="T16" s="2"/>
-      <c r="U16" s="183" t="s">
+      <c r="U16" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
@@ -5741,7 +5741,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="P17" s="144" t="s">
+      <c r="P17" s="124" t="s">
         <v>49</v>
       </c>
       <c r="Q17" s="21">
@@ -5949,12 +5949,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -5967,6 +5961,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5978,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6006,77 +6006,77 @@
   <sheetData>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="185"/>
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="130" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -6085,24 +6085,24 @@
       <c r="C7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="106"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="86" t="s">
         <v>129</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="86" t="s">
         <v>131</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="99"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
       <c r="P7" s="41" t="s">
         <v>61</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -6129,24 +6129,24 @@
       <c r="C8" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="87" t="s">
         <v>129</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="87" t="s">
         <v>131</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="100"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="29"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
       <c r="P8" s="38" t="s">
         <v>62</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="U8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -6169,28 +6169,28 @@
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="87" t="s">
         <v>185</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="87" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="107" t="s">
+      <c r="H9" s="87" t="s">
         <v>186</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
       <c r="P9" s="38" t="s">
         <v>63</v>
       </c>
@@ -6210,28 +6210,28 @@
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="87" t="s">
         <v>185</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="87" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="87" t="s">
         <v>186</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="100"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="29"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
       <c r="P10" s="38" t="s">
         <v>64</v>
       </c>
@@ -6255,24 +6255,24 @@
       <c r="C11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="87" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="107"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="87" t="s">
         <v>185</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="100"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
       <c r="P11" s="38" t="s">
         <v>65</v>
       </c>
@@ -6286,11 +6286,11 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -6299,24 +6299,24 @@
       <c r="C12" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="89" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="89" t="s">
         <v>185</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="110"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="104"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="84"/>
       <c r="P12" s="38" t="s">
         <v>66</v>
       </c>
@@ -6337,22 +6337,22 @@
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="162" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="138" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="112"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="105"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="27"/>
       <c r="P13" s="38" t="s">
         <v>67</v>
@@ -6374,22 +6374,22 @@
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="163" t="s">
+      <c r="E14" s="90"/>
+      <c r="F14" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="111" t="s">
+      <c r="K14" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="111"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="34"/>
       <c r="P14" s="38" t="s">
         <v>68</v>
@@ -6615,309 +6615,309 @@
       <c r="M22" s="34"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="156"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="132"/>
       <c r="S25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="156"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="132"/>
       <c r="S26"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="156"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="132"/>
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="157"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="156"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="132"/>
       <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="157"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="156"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="132"/>
       <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="157"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="156"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="132"/>
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="156"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="132"/>
       <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="156"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="132"/>
       <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="156"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="132"/>
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="157"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="156"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="132"/>
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="157"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="156"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="132"/>
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="157"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="156"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="132"/>
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="156"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="132"/>
       <c r="S37"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="157"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="156"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="132"/>
       <c r="S38"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="156"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="132"/>
       <c r="S39"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="156"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="132"/>
       <c r="S40"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="157"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
-      <c r="L41" s="160"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="156"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="132"/>
       <c r="S41"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="157"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
-      <c r="K42" s="160"/>
-      <c r="L42" s="160"/>
-      <c r="M42" s="160"/>
-      <c r="N42" s="156"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="132"/>
       <c r="S42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -6947,24 +6947,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -6977,6 +6959,24 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7016,103 +7016,103 @@
   <sheetData>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="174" t="s">
+      <c r="D7" s="146"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="178" t="s">
+      <c r="G7" s="152"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="114"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="94"/>
       <c r="P7" s="50" t="s">
         <v>71</v>
       </c>
@@ -7126,35 +7126,35 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="168" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="144" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="166"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="179" t="s">
+      <c r="G8" s="142"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="164" t="s">
+      <c r="K8" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="119"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="99"/>
       <c r="P8" s="39" t="s">
         <v>72</v>
       </c>
@@ -7172,34 +7172,34 @@
       <c r="A9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120" t="s">
+      <c r="D9" s="147"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K9" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="121"/>
-      <c r="M9" s="119"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="99"/>
       <c r="P9" s="39" t="s">
         <v>73</v>
       </c>
@@ -7217,38 +7217,38 @@
       <c r="A10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="120" t="s">
+      <c r="J10" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="121"/>
-      <c r="M10" s="119"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="99"/>
       <c r="P10" s="39" t="s">
         <v>74</v>
       </c>
@@ -7266,34 +7266,34 @@
       <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="171" t="s">
+      <c r="D11" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120" t="s">
+      <c r="F11" s="151"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="J11" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="L11" s="121"/>
-      <c r="M11" s="119"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="99"/>
       <c r="P11" s="39" t="s">
         <v>75</v>
       </c>
@@ -7302,37 +7302,37 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="131" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="126"/>
-      <c r="M12" s="124"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="104"/>
       <c r="P12" s="39" t="s">
         <v>76</v>
       </c>
@@ -7346,29 +7346,29 @@
         <v>4</v>
       </c>
       <c r="U12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="128" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="114"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="94"/>
       <c r="P13" s="39" t="s">
         <v>77</v>
       </c>
@@ -7386,22 +7386,22 @@
       <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="130" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="127"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="107"/>
       <c r="P14" s="39" t="s">
         <v>70</v>
       </c>
@@ -7415,45 +7415,45 @@
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="114" t="s">
+      <c r="K15" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="116"/>
-      <c r="M15" s="114"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="94"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -7463,38 +7463,38 @@
       <c r="A16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="119" t="s">
+      <c r="I16" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="120" t="s">
+      <c r="J16" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="119" t="s">
+      <c r="K16" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="119"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="99"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -7504,139 +7504,139 @@
       <c r="A17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120" t="s">
+      <c r="F17" s="100"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="120" t="s">
+      <c r="J17" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="119"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="99"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="177" t="s">
+      <c r="F18" s="111"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="131" t="s">
+      <c r="J18" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="139"/>
-      <c r="M18" s="127"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="107"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25"/>
@@ -7737,11 +7737,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -7754,6 +7749,11 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7798,116 +7798,116 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="203"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="114" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="90"/>
-      <c r="P7" s="190" t="s">
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="P7" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="180">
+      <c r="Q7" s="156">
         <v>3</v>
       </c>
-      <c r="R7" s="193">
+      <c r="R7" s="168">
         <v>40</v>
       </c>
       <c r="S7" s="6">
@@ -7918,41 +7918,41 @@
       <c r="A8" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="119" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="165" t="s">
+      <c r="K8" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="P8" s="191" t="s">
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+      <c r="P8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" s="181">
+      <c r="Q8" s="157">
         <v>2</v>
       </c>
-      <c r="R8" s="194">
+      <c r="R8" s="169">
         <v>40</v>
       </c>
       <c r="S8" s="7">
@@ -7963,33 +7963,33 @@
       <c r="A9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="121" t="s">
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="P9" s="191" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="P9" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="181">
+      <c r="Q9" s="157">
         <v>2</v>
       </c>
-      <c r="R9" s="194">
+      <c r="R9" s="169">
         <v>40</v>
       </c>
       <c r="S9" s="7">
@@ -8000,33 +8000,33 @@
       <c r="A10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="121" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="P10" s="191" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="P10" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="181">
+      <c r="Q10" s="157">
         <v>4</v>
       </c>
-      <c r="R10" s="194">
+      <c r="R10" s="169">
         <v>40</v>
       </c>
       <c r="S10" s="7">
@@ -8037,25 +8037,25 @@
       <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
-      <c r="P11" s="192" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="P11" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="181">
+      <c r="Q11" s="157">
         <v>3</v>
       </c>
-      <c r="R11" s="194">
+      <c r="R11" s="169">
         <v>40</v>
       </c>
       <c r="S11" s="7">
@@ -8066,182 +8066,182 @@
       <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="132" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="127" t="s">
+      <c r="F12" s="119"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
       <c r="O12" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="191" t="s">
+      <c r="P12" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="Q12" s="181">
+      <c r="Q12" s="157">
         <v>4</v>
       </c>
-      <c r="R12" s="194">
+      <c r="R12" s="169">
         <v>20</v>
       </c>
       <c r="S12" s="7">
         <v>4</v>
       </c>
       <c r="U12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="184" t="s">
+      <c r="F13" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="90"/>
+      <c r="K13" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="109"/>
+      <c r="M13" s="70"/>
       <c r="O13" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="191" t="s">
+      <c r="P13" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="181">
+      <c r="Q13" s="157">
         <v>4</v>
       </c>
-      <c r="R13" s="194">
+      <c r="R13" s="169">
         <v>20</v>
       </c>
       <c r="S13" s="7">
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="F14" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="K14" s="127" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="133"/>
-      <c r="M14" s="96"/>
-      <c r="P14" s="192" t="s">
+      <c r="K14" s="107" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="113"/>
+      <c r="M14" s="76"/>
+      <c r="P14" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="194"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="169"/>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="128" t="s">
+      <c r="G15" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="187" t="s">
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="P15" s="191" t="s">
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
+      <c r="P15" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="181">
+      <c r="Q15" s="157">
         <v>10</v>
       </c>
-      <c r="R15" s="194">
+      <c r="R15" s="169">
         <v>7</v>
       </c>
       <c r="S15" s="7">
@@ -8252,125 +8252,125 @@
       <c r="A16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="165" t="s">
+      <c r="F16" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="165" t="s">
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="194"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="169"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="165" t="s">
+      <c r="D17" s="100"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="165" t="s">
+      <c r="J17" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="195"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="170"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="133" t="s">
+      <c r="D18" s="111"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="130" t="s">
+      <c r="G18" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="133" t="s">
+      <c r="J18" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
@@ -8406,7 +8406,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="19"/>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8426,12 +8426,12 @@
       <c r="L22" s="21"/>
       <c r="M22" s="20"/>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -8532,11 +8532,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -8549,6 +8544,11 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8560,7 +8560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A4:U47"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -8587,107 +8587,107 @@
   <sheetData>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="114" t="s">
-        <v>257</v>
+      <c r="M7" s="94" t="s">
+        <v>256</v>
       </c>
       <c r="P7" s="54" t="s">
         <v>87</v>
@@ -8703,31 +8703,31 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="119" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="K8" s="120">
+      <c r="K8" s="100">
         <v>506</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="M8" s="119" t="s">
+      <c r="M8" s="99" t="s">
         <v>159</v>
       </c>
       <c r="O8" t="s">
@@ -8746,27 +8746,27 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="119" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="99" t="s">
         <v>159</v>
       </c>
       <c r="P9" s="55" t="s">
@@ -8783,23 +8783,23 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="119" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="99" t="s">
         <v>159</v>
       </c>
       <c r="P10" s="55" t="s">
@@ -8816,23 +8816,23 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="119" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="99" t="s">
         <v>159</v>
       </c>
       <c r="P11" s="55" t="s">
@@ -8843,23 +8843,23 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="124" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="104" t="s">
         <v>159</v>
       </c>
       <c r="P12" s="55" t="s">
@@ -8875,25 +8875,25 @@
         <v>2</v>
       </c>
       <c r="U12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="90"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="70"/>
       <c r="O13" t="s">
         <v>101</v>
       </c>
@@ -8911,29 +8911,29 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="172" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="172" t="s">
+      <c r="I14" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="96"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="76"/>
       <c r="P14" s="55" t="s">
         <v>94</v>
       </c>
@@ -8947,223 +8947,223 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="114" t="s">
+      <c r="F15" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="170" t="s">
+      <c r="H15" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="201" t="s">
+      <c r="I15" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="171" t="s">
+      <c r="H16" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="203" t="s">
+      <c r="I16" s="178" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="19"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="205" t="s">
+      <c r="F17" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="206" t="s">
+      <c r="B18" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="207" t="s">
+      <c r="F18" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="172" t="s">
+      <c r="G18" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200" t="s">
+      <c r="A22" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -9253,6 +9253,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="F5:F6"/>
@@ -9260,16 +9270,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9306,79 +9306,79 @@
   <sheetData>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="208" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -9399,7 +9399,7 @@
       <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="208" t="s">
+      <c r="P7" s="183" t="s">
         <v>95</v>
       </c>
       <c r="Q7" s="5">
@@ -9428,7 +9428,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="184" t="s">
         <v>96</v>
       </c>
       <c r="Q8" s="3">
@@ -9459,7 +9459,7 @@
         <v>167</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
@@ -9484,7 +9484,7 @@
         <v>167</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="3"/>
@@ -9527,10 +9527,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
@@ -9552,10 +9552,10 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="3"/>
@@ -9577,10 +9577,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="4"/>
@@ -9602,10 +9602,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="4"/>
@@ -9627,10 +9627,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="4"/>
@@ -9652,10 +9652,10 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="9"/>
@@ -9677,10 +9677,10 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -9698,10 +9698,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -9719,10 +9719,10 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -9740,10 +9740,10 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -9761,10 +9761,10 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -9865,11 +9865,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -9882,6 +9877,11 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9919,77 +9919,77 @@
   <sheetData>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="185" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="44"/>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="199" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="200"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -10010,7 +10010,7 @@
       <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="208" t="s">
+      <c r="P7" s="183" t="s">
         <v>98</v>
       </c>
       <c r="Q7" s="5">
@@ -10039,7 +10039,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="184" t="s">
         <v>97</v>
       </c>
       <c r="Q8" s="3">
@@ -10067,10 +10067,10 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
@@ -10092,10 +10092,10 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="3"/>
@@ -10138,10 +10138,10 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
@@ -10163,10 +10163,10 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="3"/>
@@ -10188,10 +10188,10 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="4"/>
@@ -10213,10 +10213,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="4"/>
@@ -10238,10 +10238,10 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="4"/>
@@ -10263,10 +10263,10 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="9"/>
@@ -10288,10 +10288,10 @@
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -10309,10 +10309,10 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -10330,10 +10330,10 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -10351,10 +10351,10 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10372,10 +10372,10 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -10476,11 +10476,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -10493,6 +10488,11 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
